--- a/open cart project final report/OpenCart Test Cases Summary Report.xlsx
+++ b/open cart project final report/OpenCart Test Cases Summary Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Courses\DEPI\Graduation project\LMS\G2\open cart project final report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/Professional/DEPI/Grad_Project/Summary Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5192146-8552-44BF-8F5C-B9CE67D2830C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AB6A5D-5D41-D144-8D2A-B4D7DDF42666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8658" xr2:uid="{755454F4-C48B-654C-BFDF-68CD733BBBCB}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{755454F4-C48B-654C-BFDF-68CD733BBBCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="2" r:id="rId1"/>
@@ -21,12 +21,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="149">
   <si>
     <t>Module Name</t>
   </si>
@@ -482,7 +492,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -531,7 +541,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -653,24 +663,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -686,19 +683,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -720,6 +717,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -735,7 +735,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -749,9 +749,6 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -763,6 +760,18 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -773,9 +782,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -792,24 +798,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1147,2698 +1135,2769 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6380E7-8EF2-AC43-8B9D-DE4CE158F7F2}">
   <dimension ref="A1:S117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29:K53"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="22.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.31640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" style="24"/>
-    <col min="14" max="14" width="25.81640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.81640625" style="27" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="25.81640625" style="27" customWidth="1"/>
-    <col min="17" max="17" width="19.6796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="24"/>
+    <col min="14" max="14" width="25.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.83203125" style="28" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="25.83203125" style="28" customWidth="1"/>
+    <col min="17" max="17" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.81640625" style="1"/>
+    <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="31" customFormat="1" ht="22.5">
+    <row r="1" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="38" t="s">
+      <c r="E1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="38" t="s">
+      <c r="G1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="44" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-    </row>
-    <row r="2" spans="1:19" s="8" customFormat="1">
-      <c r="A2" s="54">
-        <v>1</v>
-      </c>
-      <c r="B2" s="55" t="s">
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+    </row>
+    <row r="2" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="13">
         <v>14</v>
       </c>
-      <c r="F2" s="54">
+      <c r="F2" s="45">
         <v>27</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="13">
         <v>14</v>
       </c>
-      <c r="I2" s="12">
-        <v>0</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="25">
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="26">
         <v>100</v>
       </c>
-      <c r="N2" s="51">
+      <c r="N2" s="54">
         <v>92.592592592592595</v>
       </c>
-      <c r="O2" s="32">
+      <c r="O2" s="33">
         <f>SUM(H2:H5)*100/F2</f>
         <v>92.592592592592595</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="14" t="s">
+      <c r="P2" s="33"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="8" customFormat="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="12" t="s">
+    <row r="3" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="13">
         <v>5</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="12">
+      <c r="F3" s="45"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="13">
         <v>5</v>
       </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="25">
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="26">
         <v>100</v>
       </c>
-      <c r="N3" s="52"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="12" t="s">
+      <c r="N3" s="55"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="13" t="s">
         <v>142</v>
       </c>
       <c r="R3" s="15">
         <f>SUM(H2:H62)</f>
         <v>354</v>
       </c>
-      <c r="S3" s="28">
+      <c r="S3" s="29">
         <f>R3*100/426</f>
         <v>83.098591549295776</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="8" customFormat="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="12" t="s">
+    <row r="4" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="13">
         <v>6</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="12">
+      <c r="F4" s="45"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="13">
         <v>4</v>
       </c>
-      <c r="I4" s="12">
-        <v>2</v>
-      </c>
-      <c r="J4" s="12">
-        <v>2</v>
-      </c>
-      <c r="K4" s="12">
-        <v>2</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0</v>
-      </c>
-      <c r="M4" s="25">
+      <c r="I4" s="13">
+        <v>2</v>
+      </c>
+      <c r="J4" s="13">
+        <v>2</v>
+      </c>
+      <c r="K4" s="13">
+        <v>2</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="26">
         <v>66.666666666666671</v>
       </c>
-      <c r="N4" s="52"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="12" t="s">
+      <c r="N4" s="55"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="16">
         <f>SUM(I2:I62)</f>
         <v>72</v>
       </c>
-      <c r="S4" s="28">
+      <c r="S4" s="29">
         <f>R4*100/426</f>
         <v>16.901408450704224</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="8" customFormat="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="12" t="s">
+    <row r="5" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="12">
-        <v>2</v>
-      </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="12">
-        <v>2</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="25">
+      <c r="E5" s="13">
+        <v>2</v>
+      </c>
+      <c r="F5" s="45"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="13">
+        <v>2</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="26">
         <v>100</v>
       </c>
-      <c r="N5" s="53"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
     </row>
-    <row r="6" spans="1:19" s="8" customFormat="1">
-      <c r="A6" s="48">
-        <v>2</v>
-      </c>
-      <c r="B6" s="56" t="s">
+    <row r="6" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="46">
+        <v>2</v>
+      </c>
+      <c r="B6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="12">
         <v>4</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="46">
         <v>124</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="12">
         <v>4</v>
       </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="36">
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="37">
         <v>100</v>
       </c>
-      <c r="N6" s="45">
+      <c r="N6" s="49">
         <v>94.4</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="33">
         <f>SUM(H6:H21)*100/F6</f>
         <v>94.354838709677423</v>
       </c>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:19" s="8" customFormat="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="11" t="s">
+      <c r="P6" s="33"/>
+    </row>
+    <row r="7" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="46"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="12">
         <v>12</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="11">
+      <c r="F7" s="46"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="12">
         <v>12</v>
       </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="36">
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="37">
         <v>100</v>
       </c>
-      <c r="N7" s="46"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:19" s="8" customFormat="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="11" t="s">
+      <c r="N7" s="50"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+    </row>
+    <row r="8" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="46"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="12">
         <v>12</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="11">
+      <c r="F8" s="46"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="12">
         <v>12</v>
       </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="36">
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="37">
         <v>100</v>
       </c>
-      <c r="N8" s="46"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:19" s="8" customFormat="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="11" t="s">
+      <c r="N8" s="50"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+    </row>
+    <row r="9" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="46"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="12">
         <v>10</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="11">
+      <c r="F9" s="46"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="12">
         <v>10</v>
       </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="36">
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="37">
         <v>100</v>
       </c>
-      <c r="N9" s="46"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:19" s="8" customFormat="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="11" t="s">
+      <c r="N9" s="50"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+    </row>
+    <row r="10" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="46"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="12">
         <v>6</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="11">
+      <c r="F10" s="46"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="12">
         <v>6</v>
       </c>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="36">
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="37">
         <v>100</v>
       </c>
-      <c r="N10" s="46"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:19" s="8" customFormat="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="11" t="s">
+      <c r="N10" s="50"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+    </row>
+    <row r="11" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="46"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="12">
         <v>22</v>
       </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="11">
+      <c r="F11" s="46"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="12">
         <v>20</v>
       </c>
-      <c r="I11" s="11">
-        <v>2</v>
-      </c>
-      <c r="J11" s="11">
-        <v>2</v>
-      </c>
-      <c r="K11" s="11">
-        <v>2</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="36">
+      <c r="I11" s="12">
+        <v>2</v>
+      </c>
+      <c r="J11" s="12">
+        <v>2</v>
+      </c>
+      <c r="K11" s="12">
+        <v>2</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" s="37">
         <v>90.909090909090907</v>
       </c>
-      <c r="N11" s="46"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:19" s="8" customFormat="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="11" t="s">
+      <c r="N11" s="50"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+    </row>
+    <row r="12" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="46"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="12">
         <v>8</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="11">
+      <c r="F12" s="46"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="12">
         <v>7</v>
       </c>
-      <c r="I12" s="11">
-        <v>1</v>
-      </c>
-      <c r="J12" s="11">
-        <v>1</v>
-      </c>
-      <c r="K12" s="11">
-        <v>1</v>
-      </c>
-      <c r="L12" s="11">
-        <v>0</v>
-      </c>
-      <c r="M12" s="36">
+      <c r="I12" s="12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="37">
         <v>100</v>
       </c>
-      <c r="N12" s="46"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-    </row>
-    <row r="13" spans="1:19" s="8" customFormat="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="11" t="s">
+      <c r="N12" s="50"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+    </row>
+    <row r="13" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="46"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="12">
         <v>12</v>
       </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="11">
+      <c r="F13" s="46"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="12">
         <v>12</v>
       </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="36">
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="37">
         <v>100</v>
       </c>
-      <c r="N13" s="46"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-    </row>
-    <row r="14" spans="1:19" s="8" customFormat="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="11" t="s">
+      <c r="N13" s="50"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+    </row>
+    <row r="14" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="46"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="12">
         <v>3</v>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="11">
-        <v>2</v>
-      </c>
-      <c r="I14" s="11">
-        <v>1</v>
-      </c>
-      <c r="J14" s="11">
-        <v>1</v>
-      </c>
-      <c r="K14" s="11">
-        <v>0</v>
-      </c>
-      <c r="L14" s="11">
-        <v>1</v>
-      </c>
-      <c r="M14" s="36">
+      <c r="F14" s="46"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="12">
+        <v>2</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1</v>
+      </c>
+      <c r="J14" s="12">
+        <v>1</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0</v>
+      </c>
+      <c r="L14" s="12">
+        <v>1</v>
+      </c>
+      <c r="M14" s="37">
         <v>66.666666666666671</v>
       </c>
-      <c r="N14" s="46"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-    </row>
-    <row r="15" spans="1:19" s="8" customFormat="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="11" t="s">
+      <c r="N14" s="50"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+    </row>
+    <row r="15" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="46"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="12">
         <v>3</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="11">
-        <v>2</v>
-      </c>
-      <c r="I15" s="11">
-        <v>1</v>
-      </c>
-      <c r="J15" s="11">
-        <v>1</v>
-      </c>
-      <c r="K15" s="11">
-        <v>0</v>
-      </c>
-      <c r="L15" s="11">
-        <v>1</v>
-      </c>
-      <c r="M15" s="36">
+      <c r="F15" s="46"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="12">
+        <v>2</v>
+      </c>
+      <c r="I15" s="12">
+        <v>1</v>
+      </c>
+      <c r="J15" s="12">
+        <v>1</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12">
+        <v>1</v>
+      </c>
+      <c r="M15" s="37">
         <v>66.666666666666671</v>
       </c>
-      <c r="N15" s="46"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-    </row>
-    <row r="16" spans="1:19" s="8" customFormat="1">
-      <c r="A16" s="48"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="11" t="s">
+      <c r="N15" s="50"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+    </row>
+    <row r="16" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="46"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="12">
         <v>4</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="11">
+      <c r="F16" s="46"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="12">
         <v>4</v>
       </c>
-      <c r="I16" s="11">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="36">
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="37">
         <v>100</v>
       </c>
-      <c r="N16" s="46"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-    </row>
-    <row r="17" spans="1:16" s="8" customFormat="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="11" t="s">
+      <c r="N16" s="50"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+    </row>
+    <row r="17" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="46"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="12">
         <v>6</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="11">
+      <c r="F17" s="46"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="12">
         <v>6</v>
       </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="36">
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="37">
         <v>100</v>
       </c>
-      <c r="N17" s="46"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-    </row>
-    <row r="18" spans="1:16" s="8" customFormat="1">
-      <c r="A18" s="48"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="11" t="s">
+      <c r="N17" s="50"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+    </row>
+    <row r="18" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="12">
         <v>3</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="11">
-        <v>2</v>
-      </c>
-      <c r="I18" s="11">
-        <v>1</v>
-      </c>
-      <c r="J18" s="11">
-        <v>1</v>
-      </c>
-      <c r="K18" s="11">
-        <v>0</v>
-      </c>
-      <c r="L18" s="11">
-        <v>1</v>
-      </c>
-      <c r="M18" s="36">
+      <c r="F18" s="46"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="12">
+        <v>2</v>
+      </c>
+      <c r="I18" s="12">
+        <v>1</v>
+      </c>
+      <c r="J18" s="12">
+        <v>1</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12">
+        <v>1</v>
+      </c>
+      <c r="M18" s="37">
         <v>66.666666666666671</v>
       </c>
-      <c r="N18" s="46"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:16" s="8" customFormat="1">
-      <c r="A19" s="48"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="11" t="s">
+      <c r="N18" s="50"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+    </row>
+    <row r="19" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="46"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="12">
         <v>5</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="11">
+      <c r="F19" s="46"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="12">
         <v>4</v>
       </c>
-      <c r="I19" s="11">
-        <v>1</v>
-      </c>
-      <c r="J19" s="11">
-        <v>1</v>
-      </c>
-      <c r="K19" s="11">
-        <v>1</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="36">
+      <c r="I19" s="12">
+        <v>1</v>
+      </c>
+      <c r="J19" s="12">
+        <v>1</v>
+      </c>
+      <c r="K19" s="12">
+        <v>1</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0</v>
+      </c>
+      <c r="M19" s="37">
         <v>80</v>
       </c>
-      <c r="N19" s="46"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:16" s="8" customFormat="1">
-      <c r="A20" s="48"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="11" t="s">
+      <c r="N19" s="50"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+    </row>
+    <row r="20" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="46"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="12">
         <v>10</v>
       </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="11">
+      <c r="F20" s="46"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="12">
         <v>10</v>
       </c>
-      <c r="I20" s="11">
-        <v>0</v>
-      </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="36">
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="37">
         <v>100</v>
       </c>
-      <c r="N20" s="46"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:16" s="8" customFormat="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="11" t="s">
+      <c r="N20" s="50"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+    </row>
+    <row r="21" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="46"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="12">
         <v>4</v>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="11">
+      <c r="F21" s="46"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="12">
         <v>4</v>
       </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="36">
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="37">
         <v>100</v>
       </c>
-      <c r="N21" s="47"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="1:16" s="8" customFormat="1">
+      <c r="N21" s="51"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+    </row>
+    <row r="22" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>3</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="13">
         <v>25</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="16">
         <v>25</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="13">
         <v>20</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="13">
         <v>5</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="13">
         <v>5</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="13">
         <v>5</v>
       </c>
-      <c r="L22" s="12">
-        <v>0</v>
-      </c>
-      <c r="M22" s="25">
+      <c r="L22" s="13">
+        <v>0</v>
+      </c>
+      <c r="M22" s="26">
         <v>80</v>
       </c>
-      <c r="N22" s="28">
+      <c r="N22" s="29">
         <v>80</v>
       </c>
-      <c r="O22" s="32">
+      <c r="O22" s="33">
         <f>H22*100/F22</f>
         <v>80</v>
       </c>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:16" s="8" customFormat="1">
-      <c r="A23" s="16">
+      <c r="P22" s="33"/>
+    </row>
+    <row r="23" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
         <v>4</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="12">
         <v>29</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="14">
         <v>29</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="12">
         <v>27</v>
       </c>
-      <c r="I23" s="11">
-        <v>2</v>
-      </c>
-      <c r="J23" s="11">
-        <v>2</v>
-      </c>
-      <c r="K23" s="11">
-        <v>2</v>
-      </c>
-      <c r="L23" s="11">
-        <v>0</v>
-      </c>
-      <c r="M23" s="36">
+      <c r="I23" s="12">
+        <v>2</v>
+      </c>
+      <c r="J23" s="12">
+        <v>2</v>
+      </c>
+      <c r="K23" s="12">
+        <v>2</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+      <c r="M23" s="37">
         <v>94.117647058823536</v>
       </c>
-      <c r="N23" s="37">
+      <c r="N23" s="38">
         <v>93.1</v>
       </c>
-      <c r="O23" s="32">
+      <c r="O23" s="33">
         <f t="shared" ref="O23:O26" si="0">H23*100/F23</f>
         <v>93.103448275862064</v>
       </c>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="24" spans="1:16" s="8" customFormat="1">
+      <c r="P23" s="33"/>
+    </row>
+    <row r="24" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>5</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="13">
         <v>12</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="16">
         <v>12</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="13">
         <v>11</v>
       </c>
-      <c r="I24" s="12">
-        <v>1</v>
-      </c>
-      <c r="J24" s="12">
-        <v>1</v>
-      </c>
-      <c r="K24" s="12">
-        <v>1</v>
-      </c>
-      <c r="L24" s="12">
-        <v>0</v>
-      </c>
-      <c r="M24" s="25">
+      <c r="I24" s="13">
+        <v>1</v>
+      </c>
+      <c r="J24" s="13">
+        <v>1</v>
+      </c>
+      <c r="K24" s="13">
+        <v>1</v>
+      </c>
+      <c r="L24" s="13">
+        <v>0</v>
+      </c>
+      <c r="M24" s="26">
         <v>93.333333333333329</v>
       </c>
-      <c r="N24" s="28">
+      <c r="N24" s="29">
         <v>91.7</v>
       </c>
-      <c r="O24" s="32">
+      <c r="O24" s="33">
         <f t="shared" si="0"/>
         <v>91.666666666666671</v>
       </c>
-      <c r="P24" s="32"/>
-    </row>
-    <row r="25" spans="1:16" s="8" customFormat="1">
-      <c r="A25" s="16">
+      <c r="P24" s="33"/>
+    </row>
+    <row r="25" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
         <v>6</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="12">
         <v>49</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="14">
         <v>49</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="12">
         <v>39</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="12">
         <v>10</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="12">
         <v>11</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="12">
         <v>11</v>
       </c>
-      <c r="L25" s="11">
-        <v>0</v>
-      </c>
-      <c r="M25" s="36">
+      <c r="L25" s="12">
+        <v>0</v>
+      </c>
+      <c r="M25" s="37">
         <v>79.591836734693871</v>
       </c>
-      <c r="N25" s="37">
+      <c r="N25" s="38">
         <v>79.591836734693871</v>
       </c>
-      <c r="O25" s="32">
+      <c r="O25" s="33">
         <f t="shared" si="0"/>
         <v>79.591836734693871</v>
       </c>
-      <c r="P25" s="32"/>
-    </row>
-    <row r="26" spans="1:16" s="8" customFormat="1">
+      <c r="P25" s="33"/>
+    </row>
+    <row r="26" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>7</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="13">
         <v>20</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="16">
         <v>20</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="13">
         <v>17</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="13">
         <v>3</v>
       </c>
-      <c r="J26" s="12">
-        <v>1</v>
-      </c>
-      <c r="K26" s="12">
-        <v>2</v>
-      </c>
-      <c r="L26" s="12">
-        <v>1</v>
-      </c>
-      <c r="M26" s="25">
+      <c r="J26" s="13">
+        <v>1</v>
+      </c>
+      <c r="K26" s="13">
+        <v>2</v>
+      </c>
+      <c r="L26" s="13">
+        <v>1</v>
+      </c>
+      <c r="M26" s="26">
         <v>85</v>
       </c>
-      <c r="N26" s="28">
+      <c r="N26" s="29">
         <v>85</v>
       </c>
-      <c r="O26" s="32">
+      <c r="O26" s="33">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="P26" s="32"/>
-    </row>
-    <row r="27" spans="1:16" s="8" customFormat="1">
-      <c r="A27" s="48">
+      <c r="P26" s="33"/>
+    </row>
+    <row r="27" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="46">
         <v>8</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="12">
         <v>5</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="46">
         <v>96</v>
       </c>
-      <c r="G27" s="56" t="s">
+      <c r="G27" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="12">
         <v>5</v>
       </c>
-      <c r="I27" s="11">
-        <v>0</v>
-      </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="36">
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="37">
         <v>100</v>
       </c>
-      <c r="N27" s="45">
+      <c r="N27" s="49">
         <v>57.291666666666664</v>
       </c>
-      <c r="O27" s="32">
+      <c r="O27" s="33">
         <f>SUM(H27:H54)*100/F27</f>
         <v>57.291666666666664</v>
       </c>
-      <c r="P27" s="32"/>
-    </row>
-    <row r="28" spans="1:16" s="8" customFormat="1">
-      <c r="A28" s="48"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="11" t="s">
+      <c r="P27" s="33"/>
+    </row>
+    <row r="28" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="46"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="11">
-        <v>2</v>
-      </c>
-      <c r="F28" s="48"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="11">
-        <v>2</v>
-      </c>
-      <c r="I28" s="11">
-        <v>0</v>
-      </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="36">
+      <c r="E28" s="12">
+        <v>2</v>
+      </c>
+      <c r="F28" s="46"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="12">
+        <v>2</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="37">
         <v>100</v>
       </c>
-      <c r="N28" s="46"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-    </row>
-    <row r="29" spans="1:16" s="8" customFormat="1">
-      <c r="A29" s="48"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="11" t="s">
+      <c r="N28" s="50"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+    </row>
+    <row r="29" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="46"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="12">
         <v>3</v>
       </c>
-      <c r="F29" s="48"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="11">
+      <c r="F29" s="46"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="12">
         <v>3</v>
       </c>
-      <c r="I29" s="11">
-        <v>0</v>
-      </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="36">
+      <c r="I29" s="12">
+        <v>0</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="37">
         <v>100</v>
       </c>
-      <c r="N29" s="46"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-    </row>
-    <row r="30" spans="1:16" s="8" customFormat="1">
-      <c r="A30" s="48"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="11" t="s">
+      <c r="N29" s="50"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+    </row>
+    <row r="30" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="46"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="12">
         <v>14</v>
       </c>
-      <c r="F30" s="48"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="11">
+      <c r="F30" s="46"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="12">
         <v>4</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="12">
         <v>10</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="12">
         <v>10</v>
       </c>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="36">
+      <c r="K30" s="12">
+        <v>3</v>
+      </c>
+      <c r="L30" s="12">
+        <v>7</v>
+      </c>
+      <c r="M30" s="37">
         <v>28.571428571428573</v>
       </c>
-      <c r="N30" s="46"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:16" s="8" customFormat="1">
-      <c r="A31" s="48"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="11" t="s">
+      <c r="N30" s="50"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+    </row>
+    <row r="31" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="46"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="11">
-        <v>2</v>
-      </c>
-      <c r="F31" s="48"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="11">
-        <v>0</v>
-      </c>
-      <c r="I31" s="11">
-        <v>2</v>
-      </c>
-      <c r="J31" s="11">
-        <v>2</v>
-      </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="36">
-        <v>0</v>
-      </c>
-      <c r="N31" s="46"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-    </row>
-    <row r="32" spans="1:16" s="8" customFormat="1">
-      <c r="A32" s="48"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="11" t="s">
+      <c r="E31" s="12">
+        <v>2</v>
+      </c>
+      <c r="F31" s="46"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="I31" s="12">
+        <v>2</v>
+      </c>
+      <c r="J31" s="12">
+        <v>2</v>
+      </c>
+      <c r="K31" s="12">
+        <v>2</v>
+      </c>
+      <c r="L31" s="12">
+        <v>0</v>
+      </c>
+      <c r="M31" s="37">
+        <v>0</v>
+      </c>
+      <c r="N31" s="50"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+    </row>
+    <row r="32" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="46"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="12">
         <v>9</v>
       </c>
-      <c r="F32" s="48"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="11">
+      <c r="F32" s="46"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="12">
         <v>7</v>
       </c>
-      <c r="I32" s="11">
-        <v>2</v>
-      </c>
-      <c r="J32" s="11">
-        <v>2</v>
-      </c>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="36">
+      <c r="I32" s="12">
+        <v>2</v>
+      </c>
+      <c r="J32" s="12">
+        <v>2</v>
+      </c>
+      <c r="K32" s="12">
+        <v>2</v>
+      </c>
+      <c r="L32" s="12">
+        <v>0</v>
+      </c>
+      <c r="M32" s="37">
         <v>77.777777777777771</v>
       </c>
-      <c r="N32" s="46"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:16" s="8" customFormat="1">
-      <c r="A33" s="48"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="11" t="s">
+      <c r="N32" s="50"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+    </row>
+    <row r="33" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="46"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="12">
         <v>3</v>
       </c>
-      <c r="F33" s="48"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="11">
+      <c r="F33" s="46"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="12">
         <v>3</v>
       </c>
-      <c r="I33" s="11">
-        <v>0</v>
-      </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="36">
+      <c r="I33" s="12">
+        <v>0</v>
+      </c>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="37">
         <v>100</v>
       </c>
-      <c r="N33" s="46"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:16" s="8" customFormat="1">
-      <c r="A34" s="48"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="11" t="s">
+      <c r="N33" s="50"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+    </row>
+    <row r="34" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="46"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="12">
         <v>5</v>
       </c>
-      <c r="F34" s="48"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="11">
-        <v>2</v>
-      </c>
-      <c r="I34" s="11">
+      <c r="F34" s="46"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="12">
+        <v>2</v>
+      </c>
+      <c r="I34" s="12">
         <v>3</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="12">
         <v>3</v>
       </c>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="36">
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
+      <c r="L34" s="12">
+        <v>3</v>
+      </c>
+      <c r="M34" s="37">
         <v>40</v>
       </c>
-      <c r="N34" s="46"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:16" s="8" customFormat="1">
-      <c r="A35" s="48"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="11" t="s">
+      <c r="N34" s="50"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+    </row>
+    <row r="35" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="46"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="12">
         <v>3</v>
       </c>
-      <c r="F35" s="48"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="11">
-        <v>2</v>
-      </c>
-      <c r="I35" s="11">
-        <v>1</v>
-      </c>
-      <c r="J35" s="11">
-        <v>1</v>
-      </c>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="36">
+      <c r="F35" s="46"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="12">
+        <v>2</v>
+      </c>
+      <c r="I35" s="12">
+        <v>1</v>
+      </c>
+      <c r="J35" s="12">
+        <v>1</v>
+      </c>
+      <c r="K35" s="12">
+        <v>0</v>
+      </c>
+      <c r="L35" s="12">
+        <v>1</v>
+      </c>
+      <c r="M35" s="37">
         <v>66.666666666666671</v>
       </c>
-      <c r="N35" s="46"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="36" spans="1:16" s="8" customFormat="1">
-      <c r="A36" s="48"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="11" t="s">
+      <c r="N35" s="50"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+    </row>
+    <row r="36" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="46"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="11">
-        <v>1</v>
-      </c>
-      <c r="F36" s="48"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="11">
-        <v>0</v>
-      </c>
-      <c r="I36" s="11">
-        <v>1</v>
-      </c>
-      <c r="J36" s="11">
-        <v>1</v>
-      </c>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="36">
-        <v>0</v>
-      </c>
-      <c r="N36" s="46"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-    </row>
-    <row r="37" spans="1:16" s="8" customFormat="1">
-      <c r="A37" s="48"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="11" t="s">
+      <c r="E36" s="12">
+        <v>1</v>
+      </c>
+      <c r="F36" s="46"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="12">
+        <v>0</v>
+      </c>
+      <c r="I36" s="12">
+        <v>1</v>
+      </c>
+      <c r="J36" s="12">
+        <v>1</v>
+      </c>
+      <c r="K36" s="12">
+        <v>0</v>
+      </c>
+      <c r="L36" s="12">
+        <v>1</v>
+      </c>
+      <c r="M36" s="37">
+        <v>0</v>
+      </c>
+      <c r="N36" s="50"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+    </row>
+    <row r="37" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="46"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="12">
         <v>5</v>
       </c>
-      <c r="F37" s="48"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="11">
-        <v>2</v>
-      </c>
-      <c r="I37" s="11">
+      <c r="F37" s="46"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="12">
+        <v>2</v>
+      </c>
+      <c r="I37" s="12">
         <v>3</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="12">
         <v>3</v>
       </c>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="36">
+      <c r="K37" s="12">
+        <v>2</v>
+      </c>
+      <c r="L37" s="12">
+        <v>1</v>
+      </c>
+      <c r="M37" s="37">
         <v>40</v>
       </c>
-      <c r="N37" s="46"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-    </row>
-    <row r="38" spans="1:16" s="8" customFormat="1">
-      <c r="A38" s="48"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="11" t="s">
+      <c r="N37" s="50"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+    </row>
+    <row r="38" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="46"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="12">
         <v>5</v>
       </c>
-      <c r="F38" s="48"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="11">
-        <v>1</v>
-      </c>
-      <c r="I38" s="11">
+      <c r="F38" s="46"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="12">
+        <v>1</v>
+      </c>
+      <c r="I38" s="12">
         <v>4</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="12">
         <v>4</v>
       </c>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="36">
+      <c r="K38" s="12">
+        <v>1</v>
+      </c>
+      <c r="L38" s="12">
+        <v>3</v>
+      </c>
+      <c r="M38" s="37">
         <v>20</v>
       </c>
-      <c r="N38" s="46"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-    </row>
-    <row r="39" spans="1:16" s="8" customFormat="1">
-      <c r="A39" s="48"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="11" t="s">
+      <c r="N38" s="50"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+    </row>
+    <row r="39" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="46"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="11">
-        <v>1</v>
-      </c>
-      <c r="F39" s="48"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="11">
-        <v>0</v>
-      </c>
-      <c r="I39" s="11">
-        <v>1</v>
-      </c>
-      <c r="J39" s="11">
-        <v>1</v>
-      </c>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="36">
-        <v>0</v>
-      </c>
-      <c r="N39" s="46"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-    </row>
-    <row r="40" spans="1:16" s="8" customFormat="1">
-      <c r="A40" s="48"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="11" t="s">
+      <c r="E39" s="12">
+        <v>1</v>
+      </c>
+      <c r="F39" s="46"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="12">
+        <v>0</v>
+      </c>
+      <c r="I39" s="12">
+        <v>1</v>
+      </c>
+      <c r="J39" s="12">
+        <v>1</v>
+      </c>
+      <c r="K39" s="12">
+        <v>0</v>
+      </c>
+      <c r="L39" s="12">
+        <v>1</v>
+      </c>
+      <c r="M39" s="37">
+        <v>0</v>
+      </c>
+      <c r="N39" s="50"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+    </row>
+    <row r="40" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="46"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="11">
-        <v>2</v>
-      </c>
-      <c r="F40" s="48"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="11">
-        <v>1</v>
-      </c>
-      <c r="I40" s="11">
-        <v>1</v>
-      </c>
-      <c r="J40" s="11">
-        <v>1</v>
-      </c>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="36">
+      <c r="E40" s="12">
+        <v>2</v>
+      </c>
+      <c r="F40" s="46"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="12">
+        <v>1</v>
+      </c>
+      <c r="I40" s="12">
+        <v>1</v>
+      </c>
+      <c r="J40" s="12">
+        <v>1</v>
+      </c>
+      <c r="K40" s="12">
+        <v>0</v>
+      </c>
+      <c r="L40" s="12">
+        <v>1</v>
+      </c>
+      <c r="M40" s="37">
         <v>50</v>
       </c>
-      <c r="N40" s="46"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-    </row>
-    <row r="41" spans="1:16" s="8" customFormat="1">
-      <c r="A41" s="48"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="11" t="s">
+      <c r="N40" s="50"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+    </row>
+    <row r="41" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="46"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="11">
-        <v>1</v>
-      </c>
-      <c r="F41" s="48"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="11">
-        <v>0</v>
-      </c>
-      <c r="I41" s="11">
-        <v>1</v>
-      </c>
-      <c r="J41" s="11">
-        <v>1</v>
-      </c>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="36">
-        <v>0</v>
-      </c>
-      <c r="N41" s="46"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
-    </row>
-    <row r="42" spans="1:16" s="8" customFormat="1">
-      <c r="A42" s="48"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="11" t="s">
+      <c r="E41" s="12">
+        <v>1</v>
+      </c>
+      <c r="F41" s="46"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="12">
+        <v>0</v>
+      </c>
+      <c r="I41" s="12">
+        <v>1</v>
+      </c>
+      <c r="J41" s="12">
+        <v>1</v>
+      </c>
+      <c r="K41" s="12">
+        <v>0</v>
+      </c>
+      <c r="L41" s="12">
+        <v>1</v>
+      </c>
+      <c r="M41" s="37">
+        <v>0</v>
+      </c>
+      <c r="N41" s="50"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+    </row>
+    <row r="42" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="46"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="12">
         <v>3</v>
       </c>
-      <c r="F42" s="48"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="11">
-        <v>1</v>
-      </c>
-      <c r="I42" s="11">
-        <v>2</v>
-      </c>
-      <c r="J42" s="11">
-        <v>2</v>
-      </c>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="36">
+      <c r="F42" s="46"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="12">
+        <v>1</v>
+      </c>
+      <c r="I42" s="12">
+        <v>2</v>
+      </c>
+      <c r="J42" s="12">
+        <v>2</v>
+      </c>
+      <c r="K42" s="12">
+        <v>0</v>
+      </c>
+      <c r="L42" s="12">
+        <v>2</v>
+      </c>
+      <c r="M42" s="37">
         <v>33.333333333333336</v>
       </c>
-      <c r="N42" s="46"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
-    </row>
-    <row r="43" spans="1:16" s="8" customFormat="1">
-      <c r="A43" s="48"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="11" t="s">
+      <c r="N42" s="50"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+    </row>
+    <row r="43" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="46"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="11">
-        <v>1</v>
-      </c>
-      <c r="F43" s="48"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="11">
-        <v>0</v>
-      </c>
-      <c r="I43" s="11">
-        <v>1</v>
-      </c>
-      <c r="J43" s="11">
-        <v>1</v>
-      </c>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="36">
-        <v>0</v>
-      </c>
-      <c r="N43" s="46"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="32"/>
-    </row>
-    <row r="44" spans="1:16" s="8" customFormat="1">
-      <c r="A44" s="48"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="11" t="s">
+      <c r="E43" s="12">
+        <v>1</v>
+      </c>
+      <c r="F43" s="46"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="12">
+        <v>0</v>
+      </c>
+      <c r="I43" s="12">
+        <v>1</v>
+      </c>
+      <c r="J43" s="12">
+        <v>1</v>
+      </c>
+      <c r="K43" s="12">
+        <v>0</v>
+      </c>
+      <c r="L43" s="12">
+        <v>1</v>
+      </c>
+      <c r="M43" s="37">
+        <v>0</v>
+      </c>
+      <c r="N43" s="50"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+    </row>
+    <row r="44" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="46"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="12">
         <v>3</v>
       </c>
-      <c r="F44" s="48"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="11">
-        <v>2</v>
-      </c>
-      <c r="I44" s="11">
-        <v>1</v>
-      </c>
-      <c r="J44" s="11">
-        <v>1</v>
-      </c>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="36">
+      <c r="F44" s="46"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="12">
+        <v>2</v>
+      </c>
+      <c r="I44" s="12">
+        <v>1</v>
+      </c>
+      <c r="J44" s="12">
+        <v>1</v>
+      </c>
+      <c r="K44" s="12">
+        <v>0</v>
+      </c>
+      <c r="L44" s="12">
+        <v>1</v>
+      </c>
+      <c r="M44" s="37">
         <v>66.666666666666671</v>
       </c>
-      <c r="N44" s="46"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="32"/>
-    </row>
-    <row r="45" spans="1:16" s="8" customFormat="1">
-      <c r="A45" s="48"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="11" t="s">
+      <c r="N44" s="50"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+    </row>
+    <row r="45" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="46"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="12">
         <v>4</v>
       </c>
-      <c r="F45" s="48"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="11">
-        <v>2</v>
-      </c>
-      <c r="I45" s="11">
-        <v>2</v>
-      </c>
-      <c r="J45" s="11">
-        <v>2</v>
-      </c>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="36">
+      <c r="F45" s="46"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="12">
+        <v>2</v>
+      </c>
+      <c r="I45" s="12">
+        <v>2</v>
+      </c>
+      <c r="J45" s="12">
+        <v>2</v>
+      </c>
+      <c r="K45" s="12">
+        <v>0</v>
+      </c>
+      <c r="L45" s="12">
+        <v>2</v>
+      </c>
+      <c r="M45" s="37">
         <v>50</v>
       </c>
-      <c r="N45" s="46"/>
-      <c r="O45" s="32"/>
-      <c r="P45" s="32"/>
-    </row>
-    <row r="46" spans="1:16" s="8" customFormat="1">
-      <c r="A46" s="48"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="11" t="s">
+      <c r="N45" s="50"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+    </row>
+    <row r="46" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="46"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="11">
-        <v>2</v>
-      </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="11">
-        <v>0</v>
-      </c>
-      <c r="I46" s="11">
-        <v>2</v>
-      </c>
-      <c r="J46" s="11">
-        <v>2</v>
-      </c>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="36">
-        <v>0</v>
-      </c>
-      <c r="N46" s="46"/>
-      <c r="O46" s="32"/>
-      <c r="P46" s="32"/>
-    </row>
-    <row r="47" spans="1:16" s="8" customFormat="1">
-      <c r="A47" s="48"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="11" t="s">
+      <c r="E46" s="12">
+        <v>2</v>
+      </c>
+      <c r="F46" s="46"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="12">
+        <v>0</v>
+      </c>
+      <c r="I46" s="12">
+        <v>2</v>
+      </c>
+      <c r="J46" s="12">
+        <v>2</v>
+      </c>
+      <c r="K46" s="12">
+        <v>0</v>
+      </c>
+      <c r="L46" s="12">
+        <v>2</v>
+      </c>
+      <c r="M46" s="37">
+        <v>0</v>
+      </c>
+      <c r="N46" s="50"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+    </row>
+    <row r="47" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="46"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="12">
         <v>3</v>
       </c>
-      <c r="F47" s="48"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="11">
-        <v>1</v>
-      </c>
-      <c r="I47" s="11">
-        <v>2</v>
-      </c>
-      <c r="J47" s="11">
-        <v>2</v>
-      </c>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="36">
+      <c r="F47" s="46"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="12">
+        <v>1</v>
+      </c>
+      <c r="I47" s="12">
+        <v>2</v>
+      </c>
+      <c r="J47" s="12">
+        <v>2</v>
+      </c>
+      <c r="K47" s="12">
+        <v>0</v>
+      </c>
+      <c r="L47" s="12">
+        <v>2</v>
+      </c>
+      <c r="M47" s="37">
         <v>33.333333333333336</v>
       </c>
-      <c r="N47" s="46"/>
-      <c r="O47" s="32"/>
-      <c r="P47" s="32"/>
-    </row>
-    <row r="48" spans="1:16" s="8" customFormat="1">
-      <c r="A48" s="48"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="11" t="s">
+      <c r="N47" s="50"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+    </row>
+    <row r="48" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="46"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="12">
         <v>3</v>
       </c>
-      <c r="F48" s="48"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="11">
-        <v>2</v>
-      </c>
-      <c r="I48" s="11">
-        <v>1</v>
-      </c>
-      <c r="J48" s="11">
-        <v>1</v>
-      </c>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="36">
+      <c r="F48" s="46"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="12">
+        <v>2</v>
+      </c>
+      <c r="I48" s="12">
+        <v>1</v>
+      </c>
+      <c r="J48" s="12">
+        <v>1</v>
+      </c>
+      <c r="K48" s="12">
+        <v>0</v>
+      </c>
+      <c r="L48" s="12">
+        <v>1</v>
+      </c>
+      <c r="M48" s="37">
         <v>66.666666666666671</v>
       </c>
-      <c r="N48" s="46"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="32"/>
-    </row>
-    <row r="49" spans="1:16" s="8" customFormat="1">
-      <c r="A49" s="48"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="11" t="s">
+      <c r="N48" s="50"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+    </row>
+    <row r="49" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="46"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="11">
-        <v>1</v>
-      </c>
-      <c r="F49" s="48"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="11">
-        <v>1</v>
-      </c>
-      <c r="I49" s="11">
-        <v>0</v>
-      </c>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="36">
+      <c r="E49" s="12">
+        <v>1</v>
+      </c>
+      <c r="F49" s="46"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="12">
+        <v>1</v>
+      </c>
+      <c r="I49" s="12">
+        <v>0</v>
+      </c>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="37">
         <v>100</v>
       </c>
-      <c r="N49" s="46"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="32"/>
-    </row>
-    <row r="50" spans="1:16" s="8" customFormat="1">
-      <c r="A50" s="48"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="11" t="s">
+      <c r="N49" s="50"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+    </row>
+    <row r="50" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="46"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="12">
         <v>6</v>
       </c>
-      <c r="F50" s="48"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="11">
+      <c r="F50" s="46"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="12">
         <v>6</v>
       </c>
-      <c r="I50" s="11">
-        <v>0</v>
-      </c>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="36">
+      <c r="I50" s="12">
+        <v>0</v>
+      </c>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="37">
         <v>100</v>
       </c>
-      <c r="N50" s="46"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-    </row>
-    <row r="51" spans="1:16" s="8" customFormat="1">
-      <c r="A51" s="48"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="11" t="s">
+      <c r="N50" s="50"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="33"/>
+    </row>
+    <row r="51" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="46"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="12">
         <v>4</v>
       </c>
-      <c r="F51" s="48"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="11">
+      <c r="F51" s="46"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="12">
         <v>4</v>
       </c>
-      <c r="I51" s="11">
-        <v>0</v>
-      </c>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="36">
+      <c r="I51" s="12">
+        <v>0</v>
+      </c>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="37">
         <v>100</v>
       </c>
-      <c r="N51" s="46"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="32"/>
-    </row>
-    <row r="52" spans="1:16" s="8" customFormat="1">
-      <c r="A52" s="48"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="11" t="s">
+      <c r="N51" s="50"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
+    </row>
+    <row r="52" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="46"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E52" s="11">
-        <v>2</v>
-      </c>
-      <c r="F52" s="48"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="11">
-        <v>1</v>
-      </c>
-      <c r="I52" s="11">
-        <v>1</v>
-      </c>
-      <c r="J52" s="11">
-        <v>1</v>
-      </c>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="36">
+      <c r="E52" s="12">
+        <v>2</v>
+      </c>
+      <c r="F52" s="46"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="12">
+        <v>1</v>
+      </c>
+      <c r="I52" s="12">
+        <v>1</v>
+      </c>
+      <c r="J52" s="12">
+        <v>1</v>
+      </c>
+      <c r="K52" s="12">
+        <v>1</v>
+      </c>
+      <c r="L52" s="12">
+        <v>0</v>
+      </c>
+      <c r="M52" s="37">
         <v>50</v>
       </c>
-      <c r="N52" s="46"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="32"/>
-    </row>
-    <row r="53" spans="1:16" s="8" customFormat="1">
-      <c r="A53" s="48"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="11" t="s">
+      <c r="N52" s="50"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+    </row>
+    <row r="53" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="46"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E53" s="11">
-        <v>2</v>
-      </c>
-      <c r="F53" s="48"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="11">
-        <v>2</v>
-      </c>
-      <c r="I53" s="11">
-        <v>0</v>
-      </c>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="36">
+      <c r="E53" s="12">
+        <v>2</v>
+      </c>
+      <c r="F53" s="46"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="12">
+        <v>2</v>
+      </c>
+      <c r="I53" s="12">
+        <v>0</v>
+      </c>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="37">
         <v>100</v>
       </c>
-      <c r="N53" s="46"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="32"/>
-    </row>
-    <row r="54" spans="1:16" s="8" customFormat="1">
-      <c r="A54" s="48"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="11" t="s">
+      <c r="N53" s="50"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
+    </row>
+    <row r="54" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="46"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E54" s="11">
-        <v>1</v>
-      </c>
-      <c r="F54" s="48"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="11">
-        <v>1</v>
-      </c>
-      <c r="I54" s="11">
-        <v>0</v>
-      </c>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="36">
+      <c r="E54" s="12">
+        <v>1</v>
+      </c>
+      <c r="F54" s="46"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="12">
+        <v>1</v>
+      </c>
+      <c r="I54" s="12">
+        <v>0</v>
+      </c>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="37">
         <v>100</v>
       </c>
-      <c r="N54" s="47"/>
-      <c r="O54" s="32"/>
-      <c r="P54" s="32"/>
-    </row>
-    <row r="55" spans="1:16" s="8" customFormat="1">
-      <c r="A55" s="49">
+      <c r="N54" s="51"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+    </row>
+    <row r="55" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="52">
         <v>9</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="13">
         <v>5</v>
       </c>
-      <c r="F55" s="49">
+      <c r="F55" s="52">
         <v>20</v>
       </c>
-      <c r="G55" s="49" t="s">
+      <c r="G55" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="13">
         <v>5</v>
       </c>
-      <c r="I55" s="12">
-        <v>0</v>
-      </c>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="25">
-        <v>0</v>
-      </c>
-      <c r="N55" s="51">
+      <c r="I55" s="13">
+        <v>0</v>
+      </c>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="26">
+        <v>0</v>
+      </c>
+      <c r="N55" s="54">
         <v>95</v>
       </c>
-      <c r="O55" s="32">
+      <c r="O55" s="33">
         <f>SUM(H55:H58)*100/F55</f>
         <v>95</v>
       </c>
-      <c r="P55" s="32"/>
-    </row>
-    <row r="56" spans="1:16" s="8" customFormat="1">
-      <c r="A56" s="50"/>
+      <c r="P55" s="33"/>
+    </row>
+    <row r="56" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="53"/>
       <c r="B56" s="20"/>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="13">
         <v>5</v>
       </c>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="12">
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="13">
         <v>5</v>
       </c>
-      <c r="I56" s="12">
-        <v>0</v>
-      </c>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="25">
-        <v>0</v>
-      </c>
-      <c r="N56" s="52"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="32"/>
-    </row>
-    <row r="57" spans="1:16" s="8" customFormat="1">
-      <c r="A57" s="50"/>
+      <c r="I56" s="13">
+        <v>0</v>
+      </c>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="26">
+        <v>0</v>
+      </c>
+      <c r="N56" s="55"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+    </row>
+    <row r="57" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="53"/>
       <c r="B57" s="20"/>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="13">
         <v>5</v>
       </c>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="12">
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="13">
         <v>4</v>
       </c>
-      <c r="I57" s="12">
-        <v>1</v>
-      </c>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12">
-        <v>1</v>
-      </c>
-      <c r="L57" s="12">
-        <v>0</v>
-      </c>
-      <c r="M57" s="25">
-        <v>0</v>
-      </c>
-      <c r="N57" s="52"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="32"/>
-    </row>
-    <row r="58" spans="1:16" s="8" customFormat="1">
-      <c r="A58" s="50"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="35" t="s">
+      <c r="I57" s="13">
+        <v>1</v>
+      </c>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13">
+        <v>1</v>
+      </c>
+      <c r="L57" s="13">
+        <v>0</v>
+      </c>
+      <c r="M57" s="26">
+        <v>0</v>
+      </c>
+      <c r="N57" s="55"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+    </row>
+    <row r="58" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="53"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="E58" s="35">
+      <c r="E58" s="36">
         <v>5</v>
       </c>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="35">
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="36">
         <v>5</v>
       </c>
-      <c r="I58" s="35">
-        <v>0</v>
-      </c>
-      <c r="J58" s="35"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="29">
-        <v>0</v>
-      </c>
-      <c r="N58" s="52"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
-    </row>
-    <row r="59" spans="1:16" s="8" customFormat="1">
-      <c r="A59" s="48">
+      <c r="I58" s="36">
+        <v>0</v>
+      </c>
+      <c r="J58" s="36"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="30">
+        <v>0</v>
+      </c>
+      <c r="N58" s="55"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+    </row>
+    <row r="59" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="46">
         <v>10</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="12">
         <v>6</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="12">
         <v>6</v>
       </c>
       <c r="G59" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H59" s="12">
         <v>6</v>
       </c>
-      <c r="I59" s="11">
-        <v>0</v>
-      </c>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="36">
+      <c r="I59" s="12">
+        <v>0</v>
+      </c>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="37">
         <v>100</v>
       </c>
-      <c r="N59" s="45">
+      <c r="N59" s="49">
         <v>100</v>
       </c>
-      <c r="O59" s="32"/>
-      <c r="P59" s="32"/>
-    </row>
-    <row r="60" spans="1:16" s="8" customFormat="1">
-      <c r="A60" s="48"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+    </row>
+    <row r="60" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="46"/>
       <c r="B60" s="19"/>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="12">
         <v>6</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="12">
         <v>6</v>
       </c>
       <c r="G60" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H60" s="12">
         <v>6</v>
       </c>
-      <c r="I60" s="11">
-        <v>0</v>
-      </c>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="36">
+      <c r="I60" s="12">
+        <v>0</v>
+      </c>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="37">
         <v>100</v>
       </c>
-      <c r="N60" s="46"/>
-      <c r="O60" s="32"/>
-      <c r="P60" s="32"/>
-    </row>
-    <row r="61" spans="1:16" s="8" customFormat="1">
-      <c r="A61" s="48"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="33"/>
+    </row>
+    <row r="61" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="46"/>
       <c r="B61" s="19"/>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="12">
         <v>6</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F61" s="12">
         <v>6</v>
       </c>
       <c r="G61" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H61" s="12">
         <v>6</v>
       </c>
-      <c r="I61" s="11">
-        <v>0</v>
-      </c>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="36">
+      <c r="I61" s="12">
+        <v>0</v>
+      </c>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="37">
         <v>100</v>
       </c>
-      <c r="N61" s="46"/>
-      <c r="O61" s="32"/>
-      <c r="P61" s="32"/>
-    </row>
-    <row r="62" spans="1:16" s="8" customFormat="1">
-      <c r="A62" s="48"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="33"/>
+    </row>
+    <row r="62" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="46"/>
       <c r="B62" s="19"/>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="12">
         <v>6</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="12">
         <v>6</v>
       </c>
       <c r="G62" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H62" s="12">
         <v>6</v>
       </c>
-      <c r="I62" s="11">
-        <v>0</v>
-      </c>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="36">
+      <c r="I62" s="12">
+        <v>0</v>
+      </c>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="37">
         <v>100</v>
       </c>
-      <c r="N62" s="47"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="32"/>
-    </row>
-    <row r="63" spans="1:16" s="8" customFormat="1">
+      <c r="N62" s="51"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="33"/>
+    </row>
+    <row r="63" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="22"/>
       <c r="B63" s="21"/>
       <c r="G63" s="21"/>
       <c r="M63" s="23"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="26"/>
-      <c r="P63" s="26"/>
-    </row>
-    <row r="64" spans="1:16" s="8" customFormat="1">
+      <c r="N63" s="27"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="27"/>
+    </row>
+    <row r="64" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="22"/>
       <c r="B64" s="21"/>
       <c r="G64" s="21"/>
       <c r="M64" s="23"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="26"/>
-      <c r="P64" s="26"/>
-    </row>
-    <row r="65" spans="1:16" s="8" customFormat="1">
+      <c r="N64" s="27"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="27"/>
+    </row>
+    <row r="65" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="22"/>
       <c r="B65" s="21"/>
       <c r="G65" s="21"/>
       <c r="M65" s="23"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="26"/>
-      <c r="P65" s="26"/>
-    </row>
-    <row r="66" spans="1:16" s="8" customFormat="1">
+      <c r="N65" s="27"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="27"/>
+    </row>
+    <row r="66" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="22"/>
       <c r="B66" s="21"/>
       <c r="G66" s="21"/>
       <c r="M66" s="23"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="26"/>
-      <c r="P66" s="26"/>
-    </row>
-    <row r="67" spans="1:16" s="8" customFormat="1">
+      <c r="N66" s="27"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="27"/>
+    </row>
+    <row r="67" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="22"/>
       <c r="B67" s="21"/>
       <c r="G67" s="21"/>
       <c r="M67" s="23"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="26"/>
-      <c r="P67" s="26"/>
-    </row>
-    <row r="68" spans="1:16" s="8" customFormat="1">
+      <c r="N67" s="27"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="27"/>
+    </row>
+    <row r="68" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="22"/>
       <c r="B68" s="21"/>
       <c r="G68" s="21"/>
       <c r="M68" s="23"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="26"/>
-      <c r="P68" s="26"/>
-    </row>
-    <row r="69" spans="1:16" s="8" customFormat="1">
+      <c r="N68" s="27"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="27"/>
+    </row>
+    <row r="69" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="22"/>
       <c r="B69" s="21"/>
       <c r="G69" s="21"/>
       <c r="M69" s="23"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="26"/>
-      <c r="P69" s="26"/>
-    </row>
-    <row r="70" spans="1:16" s="8" customFormat="1">
+      <c r="N69" s="27"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="27"/>
+    </row>
+    <row r="70" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="22"/>
       <c r="B70" s="21"/>
       <c r="G70" s="21"/>
       <c r="M70" s="23"/>
-      <c r="N70" s="26"/>
-      <c r="O70" s="26"/>
-      <c r="P70" s="26"/>
-    </row>
-    <row r="71" spans="1:16" s="8" customFormat="1">
+      <c r="N70" s="27"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="27"/>
+    </row>
+    <row r="71" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="22"/>
       <c r="B71" s="21"/>
       <c r="G71" s="21"/>
       <c r="M71" s="23"/>
-      <c r="N71" s="26"/>
-      <c r="O71" s="26"/>
-      <c r="P71" s="26"/>
-    </row>
-    <row r="72" spans="1:16" s="8" customFormat="1">
+      <c r="N71" s="27"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="27"/>
+    </row>
+    <row r="72" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="22"/>
       <c r="B72" s="21"/>
       <c r="G72" s="21"/>
       <c r="M72" s="23"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="26"/>
-      <c r="P72" s="26"/>
-    </row>
-    <row r="73" spans="1:16" s="8" customFormat="1">
+      <c r="N72" s="27"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="27"/>
+    </row>
+    <row r="73" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="22"/>
       <c r="B73" s="21"/>
       <c r="G73" s="21"/>
       <c r="M73" s="23"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="26"/>
-      <c r="P73" s="26"/>
-    </row>
-    <row r="74" spans="1:16" s="8" customFormat="1">
+      <c r="N73" s="27"/>
+      <c r="O73" s="27"/>
+      <c r="P73" s="27"/>
+    </row>
+    <row r="74" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="22"/>
       <c r="B74" s="21"/>
       <c r="G74" s="21"/>
       <c r="M74" s="23"/>
-      <c r="N74" s="26"/>
-      <c r="O74" s="26"/>
-      <c r="P74" s="26"/>
-    </row>
-    <row r="75" spans="1:16" s="8" customFormat="1">
+      <c r="N74" s="27"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="27"/>
+    </row>
+    <row r="75" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="22"/>
       <c r="B75" s="21"/>
       <c r="G75" s="21"/>
       <c r="M75" s="23"/>
-      <c r="N75" s="26"/>
-      <c r="O75" s="26"/>
-      <c r="P75" s="26"/>
-    </row>
-    <row r="76" spans="1:16" s="8" customFormat="1">
+      <c r="N75" s="27"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="27"/>
+    </row>
+    <row r="76" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="22"/>
       <c r="B76" s="21"/>
       <c r="G76" s="21"/>
       <c r="M76" s="23"/>
-      <c r="N76" s="26"/>
-      <c r="O76" s="26"/>
-      <c r="P76" s="26"/>
-    </row>
-    <row r="77" spans="1:16" s="8" customFormat="1">
+      <c r="N76" s="27"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="27"/>
+    </row>
+    <row r="77" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="22"/>
       <c r="B77" s="21"/>
       <c r="G77" s="21"/>
       <c r="M77" s="23"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="26"/>
-      <c r="P77" s="26"/>
-    </row>
-    <row r="78" spans="1:16" s="8" customFormat="1">
+      <c r="N77" s="27"/>
+      <c r="O77" s="27"/>
+      <c r="P77" s="27"/>
+    </row>
+    <row r="78" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="22"/>
       <c r="B78" s="21"/>
       <c r="G78" s="21"/>
       <c r="M78" s="23"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="26"/>
-      <c r="P78" s="26"/>
-    </row>
-    <row r="79" spans="1:16" s="8" customFormat="1">
+      <c r="N78" s="27"/>
+      <c r="O78" s="27"/>
+      <c r="P78" s="27"/>
+    </row>
+    <row r="79" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="22"/>
       <c r="B79" s="21"/>
       <c r="G79" s="21"/>
       <c r="M79" s="23"/>
-      <c r="N79" s="26"/>
-      <c r="O79" s="26"/>
-      <c r="P79" s="26"/>
-    </row>
-    <row r="80" spans="1:16" s="8" customFormat="1">
+      <c r="N79" s="27"/>
+      <c r="O79" s="27"/>
+      <c r="P79" s="27"/>
+    </row>
+    <row r="80" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="22"/>
       <c r="B80" s="21"/>
       <c r="G80" s="21"/>
       <c r="M80" s="23"/>
-      <c r="N80" s="26"/>
-      <c r="O80" s="26"/>
-      <c r="P80" s="26"/>
-    </row>
-    <row r="81" spans="1:16" s="8" customFormat="1">
+      <c r="N80" s="27"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="27"/>
+    </row>
+    <row r="81" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="22"/>
       <c r="B81" s="21"/>
       <c r="G81" s="21"/>
       <c r="M81" s="23"/>
-      <c r="N81" s="26"/>
-      <c r="O81" s="26"/>
-      <c r="P81" s="26"/>
-    </row>
-    <row r="82" spans="1:16" s="8" customFormat="1">
+      <c r="N81" s="27"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="27"/>
+    </row>
+    <row r="82" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="22"/>
       <c r="B82" s="21"/>
       <c r="G82" s="21"/>
       <c r="M82" s="23"/>
-      <c r="N82" s="26"/>
-      <c r="O82" s="26"/>
-      <c r="P82" s="26"/>
-    </row>
-    <row r="83" spans="1:16" s="8" customFormat="1">
+      <c r="N82" s="27"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="27"/>
+    </row>
+    <row r="83" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="22"/>
       <c r="B83" s="21"/>
       <c r="G83" s="21"/>
       <c r="M83" s="23"/>
-      <c r="N83" s="26"/>
-      <c r="O83" s="26"/>
-      <c r="P83" s="26"/>
-    </row>
-    <row r="84" spans="1:16" s="8" customFormat="1">
+      <c r="N83" s="27"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27"/>
+    </row>
+    <row r="84" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="22"/>
       <c r="B84" s="21"/>
       <c r="G84" s="21"/>
       <c r="M84" s="23"/>
-      <c r="N84" s="26"/>
-      <c r="O84" s="26"/>
-      <c r="P84" s="26"/>
-    </row>
-    <row r="85" spans="1:16" s="8" customFormat="1">
+      <c r="N84" s="27"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="27"/>
+    </row>
+    <row r="85" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="22"/>
       <c r="B85" s="21"/>
       <c r="G85" s="21"/>
       <c r="M85" s="23"/>
-      <c r="N85" s="26"/>
-      <c r="O85" s="26"/>
-      <c r="P85" s="26"/>
-    </row>
-    <row r="86" spans="1:16" s="8" customFormat="1">
+      <c r="N85" s="27"/>
+      <c r="O85" s="27"/>
+      <c r="P85" s="27"/>
+    </row>
+    <row r="86" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="22"/>
       <c r="B86" s="21"/>
       <c r="G86" s="21"/>
       <c r="M86" s="23"/>
-      <c r="N86" s="26"/>
-      <c r="O86" s="26"/>
-      <c r="P86" s="26"/>
-    </row>
-    <row r="87" spans="1:16" s="8" customFormat="1">
+      <c r="N86" s="27"/>
+      <c r="O86" s="27"/>
+      <c r="P86" s="27"/>
+    </row>
+    <row r="87" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="22"/>
       <c r="B87" s="21"/>
       <c r="G87" s="21"/>
       <c r="M87" s="23"/>
-      <c r="N87" s="26"/>
-      <c r="O87" s="26"/>
-      <c r="P87" s="26"/>
-    </row>
-    <row r="88" spans="1:16" s="8" customFormat="1">
+      <c r="N87" s="27"/>
+      <c r="O87" s="27"/>
+      <c r="P87" s="27"/>
+    </row>
+    <row r="88" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="22"/>
       <c r="B88" s="21"/>
       <c r="G88" s="21"/>
       <c r="M88" s="23"/>
-      <c r="N88" s="26"/>
-      <c r="O88" s="26"/>
-      <c r="P88" s="26"/>
-    </row>
-    <row r="89" spans="1:16" s="8" customFormat="1">
+      <c r="N88" s="27"/>
+      <c r="O88" s="27"/>
+      <c r="P88" s="27"/>
+    </row>
+    <row r="89" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="22"/>
       <c r="B89" s="21"/>
       <c r="G89" s="21"/>
       <c r="M89" s="23"/>
-      <c r="N89" s="26"/>
-      <c r="O89" s="26"/>
-      <c r="P89" s="26"/>
-    </row>
-    <row r="90" spans="1:16" s="8" customFormat="1">
+      <c r="N89" s="27"/>
+      <c r="O89" s="27"/>
+      <c r="P89" s="27"/>
+    </row>
+    <row r="90" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="22"/>
       <c r="B90" s="21"/>
       <c r="G90" s="21"/>
       <c r="M90" s="23"/>
-      <c r="N90" s="26"/>
-      <c r="O90" s="26"/>
-      <c r="P90" s="26"/>
-    </row>
-    <row r="91" spans="1:16" s="8" customFormat="1">
+      <c r="N90" s="27"/>
+      <c r="O90" s="27"/>
+      <c r="P90" s="27"/>
+    </row>
+    <row r="91" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="22"/>
       <c r="B91" s="21"/>
       <c r="G91" s="21"/>
       <c r="M91" s="23"/>
-      <c r="N91" s="26"/>
-      <c r="O91" s="26"/>
-      <c r="P91" s="26"/>
-    </row>
-    <row r="92" spans="1:16" s="8" customFormat="1">
+      <c r="N91" s="27"/>
+      <c r="O91" s="27"/>
+      <c r="P91" s="27"/>
+    </row>
+    <row r="92" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="22"/>
       <c r="B92" s="21"/>
       <c r="G92" s="21"/>
       <c r="M92" s="23"/>
-      <c r="N92" s="26"/>
-      <c r="O92" s="26"/>
-      <c r="P92" s="26"/>
-    </row>
-    <row r="93" spans="1:16" s="8" customFormat="1">
+      <c r="N92" s="27"/>
+      <c r="O92" s="27"/>
+      <c r="P92" s="27"/>
+    </row>
+    <row r="93" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="22"/>
       <c r="B93" s="21"/>
       <c r="G93" s="21"/>
       <c r="M93" s="23"/>
-      <c r="N93" s="26"/>
-      <c r="O93" s="26"/>
-      <c r="P93" s="26"/>
-    </row>
-    <row r="94" spans="1:16" s="8" customFormat="1">
+      <c r="N93" s="27"/>
+      <c r="O93" s="27"/>
+      <c r="P93" s="27"/>
+    </row>
+    <row r="94" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="22"/>
       <c r="B94" s="21"/>
       <c r="G94" s="21"/>
       <c r="M94" s="23"/>
-      <c r="N94" s="26"/>
-      <c r="O94" s="26"/>
-      <c r="P94" s="26"/>
-    </row>
-    <row r="95" spans="1:16" s="8" customFormat="1">
+      <c r="N94" s="27"/>
+      <c r="O94" s="27"/>
+      <c r="P94" s="27"/>
+    </row>
+    <row r="95" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="22"/>
       <c r="B95" s="21"/>
       <c r="G95" s="21"/>
       <c r="M95" s="23"/>
-      <c r="N95" s="26"/>
-      <c r="O95" s="26"/>
-      <c r="P95" s="26"/>
-    </row>
-    <row r="96" spans="1:16" s="8" customFormat="1">
+      <c r="N95" s="27"/>
+      <c r="O95" s="27"/>
+      <c r="P95" s="27"/>
+    </row>
+    <row r="96" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="22"/>
       <c r="B96" s="21"/>
       <c r="G96" s="21"/>
       <c r="M96" s="23"/>
-      <c r="N96" s="26"/>
-      <c r="O96" s="26"/>
-      <c r="P96" s="26"/>
-    </row>
-    <row r="97" spans="1:16" s="8" customFormat="1">
+      <c r="N96" s="27"/>
+      <c r="O96" s="27"/>
+      <c r="P96" s="27"/>
+    </row>
+    <row r="97" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="22"/>
       <c r="B97" s="21"/>
       <c r="G97" s="21"/>
       <c r="M97" s="23"/>
-      <c r="N97" s="26"/>
-      <c r="O97" s="26"/>
-      <c r="P97" s="26"/>
-    </row>
-    <row r="98" spans="1:16" s="8" customFormat="1">
+      <c r="N97" s="27"/>
+      <c r="O97" s="27"/>
+      <c r="P97" s="27"/>
+    </row>
+    <row r="98" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="22"/>
       <c r="B98" s="21"/>
       <c r="G98" s="21"/>
       <c r="M98" s="23"/>
-      <c r="N98" s="26"/>
-      <c r="O98" s="26"/>
-      <c r="P98" s="26"/>
-    </row>
-    <row r="99" spans="1:16" s="8" customFormat="1">
+      <c r="N98" s="27"/>
+      <c r="O98" s="27"/>
+      <c r="P98" s="27"/>
+    </row>
+    <row r="99" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="22"/>
       <c r="B99" s="21"/>
       <c r="G99" s="21"/>
       <c r="M99" s="23"/>
-      <c r="N99" s="26"/>
-      <c r="O99" s="26"/>
-      <c r="P99" s="26"/>
-    </row>
-    <row r="100" spans="1:16" s="8" customFormat="1">
+      <c r="N99" s="27"/>
+      <c r="O99" s="27"/>
+      <c r="P99" s="27"/>
+    </row>
+    <row r="100" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="22"/>
       <c r="B100" s="21"/>
       <c r="G100" s="21"/>
       <c r="M100" s="23"/>
-      <c r="N100" s="26"/>
-      <c r="O100" s="26"/>
-      <c r="P100" s="26"/>
-    </row>
-    <row r="101" spans="1:16" s="8" customFormat="1">
+      <c r="N100" s="27"/>
+      <c r="O100" s="27"/>
+      <c r="P100" s="27"/>
+    </row>
+    <row r="101" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="22"/>
       <c r="B101" s="21"/>
       <c r="G101" s="21"/>
       <c r="M101" s="23"/>
-      <c r="N101" s="26"/>
-      <c r="O101" s="26"/>
-      <c r="P101" s="26"/>
-    </row>
-    <row r="102" spans="1:16" s="8" customFormat="1">
+      <c r="N101" s="27"/>
+      <c r="O101" s="27"/>
+      <c r="P101" s="27"/>
+    </row>
+    <row r="102" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="22"/>
       <c r="B102" s="21"/>
       <c r="G102" s="21"/>
       <c r="M102" s="23"/>
-      <c r="N102" s="26"/>
-      <c r="O102" s="26"/>
-      <c r="P102" s="26"/>
-    </row>
-    <row r="103" spans="1:16" s="8" customFormat="1">
+      <c r="N102" s="27"/>
+      <c r="O102" s="27"/>
+      <c r="P102" s="27"/>
+    </row>
+    <row r="103" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="22"/>
       <c r="B103" s="21"/>
       <c r="G103" s="21"/>
       <c r="M103" s="23"/>
-      <c r="N103" s="26"/>
-      <c r="O103" s="26"/>
-      <c r="P103" s="26"/>
-    </row>
-    <row r="104" spans="1:16" s="8" customFormat="1">
+      <c r="N103" s="27"/>
+      <c r="O103" s="27"/>
+      <c r="P103" s="27"/>
+    </row>
+    <row r="104" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="22"/>
       <c r="B104" s="21"/>
       <c r="G104" s="21"/>
       <c r="M104" s="23"/>
-      <c r="N104" s="26"/>
-      <c r="O104" s="26"/>
-      <c r="P104" s="26"/>
-    </row>
-    <row r="105" spans="1:16" s="8" customFormat="1">
+      <c r="N104" s="27"/>
+      <c r="O104" s="27"/>
+      <c r="P104" s="27"/>
+    </row>
+    <row r="105" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="22"/>
       <c r="B105" s="21"/>
       <c r="G105" s="21"/>
       <c r="M105" s="23"/>
-      <c r="N105" s="26"/>
-      <c r="O105" s="26"/>
-      <c r="P105" s="26"/>
-    </row>
-    <row r="106" spans="1:16" s="8" customFormat="1">
+      <c r="N105" s="27"/>
+      <c r="O105" s="27"/>
+      <c r="P105" s="27"/>
+    </row>
+    <row r="106" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="22"/>
       <c r="B106" s="21"/>
       <c r="G106" s="21"/>
       <c r="M106" s="23"/>
-      <c r="N106" s="26"/>
-      <c r="O106" s="26"/>
-      <c r="P106" s="26"/>
-    </row>
-    <row r="107" spans="1:16" s="8" customFormat="1">
+      <c r="N106" s="27"/>
+      <c r="O106" s="27"/>
+      <c r="P106" s="27"/>
+    </row>
+    <row r="107" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="22"/>
       <c r="B107" s="21"/>
       <c r="G107" s="21"/>
       <c r="M107" s="23"/>
-      <c r="N107" s="26"/>
-      <c r="O107" s="26"/>
-      <c r="P107" s="26"/>
-    </row>
-    <row r="108" spans="1:16" s="8" customFormat="1">
+      <c r="N107" s="27"/>
+      <c r="O107" s="27"/>
+      <c r="P107" s="27"/>
+    </row>
+    <row r="108" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="22"/>
       <c r="B108" s="21"/>
       <c r="G108" s="21"/>
       <c r="M108" s="23"/>
-      <c r="N108" s="26"/>
-      <c r="O108" s="26"/>
-      <c r="P108" s="26"/>
-    </row>
-    <row r="109" spans="1:16" s="8" customFormat="1">
+      <c r="N108" s="27"/>
+      <c r="O108" s="27"/>
+      <c r="P108" s="27"/>
+    </row>
+    <row r="109" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="22"/>
       <c r="B109" s="21"/>
       <c r="G109" s="21"/>
       <c r="M109" s="23"/>
-      <c r="N109" s="26"/>
-      <c r="O109" s="26"/>
-      <c r="P109" s="26"/>
-    </row>
-    <row r="110" spans="1:16" s="8" customFormat="1">
+      <c r="N109" s="27"/>
+      <c r="O109" s="27"/>
+      <c r="P109" s="27"/>
+    </row>
+    <row r="110" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="22"/>
       <c r="B110" s="21"/>
       <c r="G110" s="21"/>
       <c r="M110" s="23"/>
-      <c r="N110" s="26"/>
-      <c r="O110" s="26"/>
-      <c r="P110" s="26"/>
-    </row>
-    <row r="111" spans="1:16" s="8" customFormat="1">
+      <c r="N110" s="27"/>
+      <c r="O110" s="27"/>
+      <c r="P110" s="27"/>
+    </row>
+    <row r="111" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="22"/>
       <c r="B111" s="21"/>
       <c r="G111" s="21"/>
       <c r="M111" s="23"/>
-      <c r="N111" s="26"/>
-      <c r="O111" s="26"/>
-      <c r="P111" s="26"/>
-    </row>
-    <row r="112" spans="1:16" s="8" customFormat="1">
+      <c r="N111" s="27"/>
+      <c r="O111" s="27"/>
+      <c r="P111" s="27"/>
+    </row>
+    <row r="112" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="22"/>
       <c r="B112" s="21"/>
       <c r="G112" s="21"/>
       <c r="M112" s="23"/>
-      <c r="N112" s="26"/>
-      <c r="O112" s="26"/>
-      <c r="P112" s="26"/>
-    </row>
-    <row r="113" spans="1:16" s="8" customFormat="1">
+      <c r="N112" s="27"/>
+      <c r="O112" s="27"/>
+      <c r="P112" s="27"/>
+    </row>
+    <row r="113" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="22"/>
       <c r="B113" s="21"/>
       <c r="G113" s="21"/>
       <c r="M113" s="23"/>
-      <c r="N113" s="26"/>
-      <c r="O113" s="26"/>
-      <c r="P113" s="26"/>
-    </row>
-    <row r="114" spans="1:16" s="8" customFormat="1">
+      <c r="N113" s="27"/>
+      <c r="O113" s="27"/>
+      <c r="P113" s="27"/>
+    </row>
+    <row r="114" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="22"/>
       <c r="B114" s="21"/>
       <c r="G114" s="21"/>
       <c r="M114" s="23"/>
-      <c r="N114" s="26"/>
-      <c r="O114" s="26"/>
-      <c r="P114" s="26"/>
-    </row>
-    <row r="115" spans="1:16" s="8" customFormat="1">
+      <c r="N114" s="27"/>
+      <c r="O114" s="27"/>
+      <c r="P114" s="27"/>
+    </row>
+    <row r="115" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="22"/>
       <c r="B115" s="21"/>
       <c r="G115" s="21"/>
       <c r="M115" s="23"/>
-      <c r="N115" s="26"/>
-      <c r="O115" s="26"/>
-      <c r="P115" s="26"/>
-    </row>
-    <row r="116" spans="1:16" s="8" customFormat="1">
+      <c r="N115" s="27"/>
+      <c r="O115" s="27"/>
+      <c r="P115" s="27"/>
+    </row>
+    <row r="116" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="22"/>
       <c r="B116" s="21"/>
       <c r="G116" s="21"/>
       <c r="M116" s="23"/>
-      <c r="N116" s="26"/>
-      <c r="O116" s="26"/>
-      <c r="P116" s="26"/>
-    </row>
-    <row r="117" spans="1:16" s="8" customFormat="1">
+      <c r="N116" s="27"/>
+      <c r="O116" s="27"/>
+      <c r="P116" s="27"/>
+    </row>
+    <row r="117" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="22"/>
       <c r="B117" s="21"/>
       <c r="G117" s="21"/>
       <c r="M117" s="23"/>
-      <c r="N117" s="26"/>
-      <c r="O117" s="26"/>
-      <c r="P117" s="26"/>
+      <c r="N117" s="27"/>
+      <c r="O117" s="27"/>
+      <c r="P117" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G27:G54"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F21"/>
-    <mergeCell ref="F27:F54"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B21"/>
-    <mergeCell ref="B27:B54"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="N59:N62"/>
     <mergeCell ref="A59:A62"/>
@@ -3855,6 +3914,13 @@
     <mergeCell ref="A6:A21"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G6:G21"/>
+    <mergeCell ref="G27:G54"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F21"/>
+    <mergeCell ref="F27:F54"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B21"/>
+    <mergeCell ref="B27:B54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3862,35 +3928,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2E2140-DBAD-174C-ABFB-B954BE8EE60C}">
-  <dimension ref="A1:W55"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="22.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="34.6796875" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6796875" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6796875" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="12" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" style="1"/>
-    <col min="14" max="14" width="25.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.6796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.6796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.08984375" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.81640625" style="1"/>
-    <col min="21" max="21" width="15.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.81640625" style="1"/>
+    <col min="13" max="13" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="9" customFormat="1" ht="22.5">
+    <row r="1" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>3</v>
       </c>
@@ -3910,34 +3974,29 @@
       <c r="G1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="38" t="s">
+      <c r="N1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="25" t="s">
         <v>118</v>
       </c>
       <c r="S1" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="U1" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="V1" s="58"/>
-      <c r="W1" s="59"/>
-    </row>
-    <row r="2" spans="1:23">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3980,15 +4039,8 @@
       <c r="S2" s="42">
         <v>92.592592592592595</v>
       </c>
-      <c r="U2" s="12"/>
-      <c r="V2" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="W2" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -4002,39 +4054,29 @@
         <v>10</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="M3" s="11">
-        <v>2</v>
-      </c>
-      <c r="N3" s="11" t="s">
+      <c r="M3" s="12">
+        <v>2</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="12">
         <v>124</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="12">
         <v>117</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="12">
         <v>7</v>
       </c>
-      <c r="S3" s="36">
+      <c r="S3" s="37">
         <v>94.354838709677423</v>
       </c>
-      <c r="U3" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="V3" s="15">
-        <v>354</v>
-      </c>
-      <c r="W3" s="28">
-        <f>V3*100/426</f>
-        <v>83.098591549295776</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
@@ -4069,18 +4111,8 @@
       <c r="S4" s="42">
         <v>80</v>
       </c>
-      <c r="U4" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="V4" s="14">
-        <v>72</v>
-      </c>
-      <c r="W4" s="28">
-        <f>V4*100/426</f>
-        <v>16.901408450704224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>59</v>
@@ -4096,29 +4128,29 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="6"/>
-      <c r="M5" s="11">
+      <c r="M5" s="12">
         <v>4</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="12">
         <v>29</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="12">
         <v>27</v>
       </c>
-      <c r="R5" s="11">
-        <v>2</v>
-      </c>
-      <c r="S5" s="36">
+      <c r="R5" s="12">
+        <v>2</v>
+      </c>
+      <c r="S5" s="37">
         <v>93.103448275862064</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -4162,7 +4194,7 @@
         <v>91.666666666666671</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>64</v>
       </c>
@@ -4176,29 +4208,29 @@
         <v>12</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="M7" s="11">
+      <c r="M7" s="12">
         <v>6</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="12">
         <v>49</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="12">
         <v>39</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="12">
         <v>10</v>
       </c>
-      <c r="S7" s="36">
+      <c r="S7" s="37">
         <v>79.591836734693871</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>63</v>
       </c>
@@ -4234,7 +4266,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>52</v>
       </c>
@@ -4248,29 +4280,29 @@
         <v>10</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="M9" s="11">
+      <c r="M9" s="12">
         <v>8</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="12">
         <v>96</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="12">
         <v>55</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="12">
         <v>41</v>
       </c>
-      <c r="S9" s="36">
+      <c r="S9" s="37">
         <v>57.291666666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>53</v>
       </c>
@@ -4306,7 +4338,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
@@ -4320,29 +4352,29 @@
         <v>22</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="M11" s="11">
+      <c r="M11" s="12">
         <v>10</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="12">
         <v>6</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="12">
         <v>6</v>
       </c>
-      <c r="R11" s="11">
-        <v>0</v>
-      </c>
-      <c r="S11" s="36">
+      <c r="R11" s="12">
+        <v>0</v>
+      </c>
+      <c r="S11" s="37">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
@@ -4378,7 +4410,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
@@ -4392,29 +4424,29 @@
         <v>12</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="M13" s="11">
+      <c r="M13" s="12">
         <v>12</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="12">
         <v>6</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="12">
         <v>6</v>
       </c>
-      <c r="R13" s="11">
-        <v>0</v>
-      </c>
-      <c r="S13" s="36">
+      <c r="R13" s="12">
+        <v>0</v>
+      </c>
+      <c r="S13" s="37">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
@@ -4450,7 +4482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
@@ -4464,20 +4496,20 @@
         <v>3</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30" t="s">
+      <c r="M15" s="31"/>
+      <c r="N15" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="O15" s="30">
+      <c r="O15" s="31">
         <f>SUM(O2:O14)</f>
         <v>426</v>
       </c>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30">
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31">
         <f>SUM(Q2:Q14)</f>
         <v>354</v>
       </c>
-      <c r="R15" s="30">
+      <c r="R15" s="31">
         <f>SUM(R2:R14)</f>
         <v>72</v>
       </c>
@@ -4485,7 +4517,7 @@
         <v>83.098591549295776</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
@@ -4500,7 +4532,7 @@
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
@@ -4515,7 +4547,7 @@
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
@@ -4530,7 +4562,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>33</v>
       </c>
@@ -4545,7 +4577,7 @@
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>56</v>
       </c>
@@ -4560,7 +4592,7 @@
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>113</v>
@@ -4577,7 +4609,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>3</v>
       </c>
@@ -4600,7 +4632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -4623,7 +4655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>5</v>
       </c>
@@ -4646,7 +4678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>6</v>
       </c>
@@ -4669,7 +4701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>7</v>
       </c>
@@ -4692,7 +4724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>8</v>
       </c>
@@ -4715,7 +4747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>9</v>
       </c>
@@ -4738,7 +4770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>59</v>
       </c>
@@ -4753,7 +4785,7 @@
       </c>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>64</v>
       </c>
@@ -4768,7 +4800,7 @@
       </c>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
@@ -4783,7 +4815,7 @@
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>68</v>
       </c>
@@ -4798,7 +4830,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>116</v>
       </c>
@@ -4813,7 +4845,7 @@
       </c>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>115</v>
       </c>
@@ -4828,7 +4860,7 @@
       </c>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>71</v>
       </c>
@@ -4843,7 +4875,7 @@
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>73</v>
       </c>
@@ -4858,7 +4890,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>75</v>
       </c>
@@ -4873,7 +4905,7 @@
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>77</v>
       </c>
@@ -4888,7 +4920,7 @@
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>79</v>
       </c>
@@ -4903,7 +4935,7 @@
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>81</v>
       </c>
@@ -4918,7 +4950,7 @@
       </c>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>83</v>
       </c>
@@ -4933,7 +4965,7 @@
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>85</v>
       </c>
@@ -4948,7 +4980,7 @@
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>87</v>
       </c>
@@ -4963,7 +4995,7 @@
       </c>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>89</v>
       </c>
@@ -4978,7 +5010,7 @@
       </c>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
         <v>91</v>
       </c>
@@ -4993,7 +5025,7 @@
       </c>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
         <v>93</v>
       </c>
@@ -5008,7 +5040,7 @@
       </c>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
         <v>95</v>
       </c>
@@ -5023,7 +5055,7 @@
       </c>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>98</v>
       </c>
@@ -5038,7 +5070,7 @@
       </c>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
         <v>99</v>
       </c>
@@ -5053,7 +5085,7 @@
       </c>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
         <v>101</v>
       </c>
@@ -5068,7 +5100,7 @@
       </c>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>103</v>
       </c>
@@ -5083,7 +5115,7 @@
       </c>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
         <v>105</v>
       </c>
@@ -5098,7 +5130,7 @@
       </c>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>108</v>
       </c>
@@ -5113,7 +5145,7 @@
       </c>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>109</v>
       </c>
@@ -5128,7 +5160,7 @@
       </c>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>112</v>
       </c>
@@ -5144,9 +5176,6 @@
       <c r="G55" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="U1:W1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>